--- a/Experiments_1B/01_ExecutionVariation/Drop-Wave/curves.xlsx
+++ b/Experiments_1B/01_ExecutionVariation/Drop-Wave/curves.xlsx
@@ -512,7 +512,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.9999581647347409</v>
+        <v>-0.9999274262080056</v>
       </c>
     </row>
     <row r="3">
@@ -520,7 +520,7 @@
         <v>50</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.9999386631937531</v>
+        <v>-0.9999365202971175</v>
       </c>
     </row>
     <row r="4">
@@ -528,7 +528,7 @@
         <v>100</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9999490440119563</v>
+        <v>-0.9999528229893277</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         <v>150</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.9999411651487382</v>
+        <v>-0.9999490837183127</v>
       </c>
     </row>
     <row r="6">
@@ -544,7 +544,7 @@
         <v>200</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.999954078752431</v>
+        <v>-0.9999530038663683</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>6.19748228937084e-05</v>
+        <v>7.283055805411073e-05</v>
       </c>
     </row>
     <row r="3">
@@ -591,7 +591,7 @@
         <v>50</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0001554706509981907</v>
+        <v>-0.0002137904541593683</v>
       </c>
     </row>
     <row r="4">
@@ -599,7 +599,7 @@
         <v>100</v>
       </c>
       <c r="B4" t="n">
-        <v>-5.136843629186508e-05</v>
+        <v>0.0001076677088760225</v>
       </c>
     </row>
     <row r="5">
@@ -607,7 +607,7 @@
         <v>150</v>
       </c>
       <c r="B5" t="n">
-        <v>6.920033615231063e-06</v>
+        <v>-1.439275954561746e-05</v>
       </c>
     </row>
     <row r="6">
@@ -615,7 +615,7 @@
         <v>200</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.146469883905613e-05</v>
+        <v>-7.699588400543221e-05</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +654,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0003662090961236783</v>
+        <v>0.000109863926748931</v>
       </c>
     </row>
     <row r="3">
@@ -662,7 +662,7 @@
         <v>50</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0001019694491336968</v>
+        <v>-0.0001498430047125899</v>
       </c>
     </row>
     <row r="4">
@@ -670,7 +670,7 @@
         <v>100</v>
       </c>
       <c r="B4" t="n">
-        <v>-8.413526260536312e-05</v>
+        <v>-8.398100237841342e-05</v>
       </c>
     </row>
     <row r="5">
@@ -678,7 +678,7 @@
         <v>150</v>
       </c>
       <c r="B5" t="n">
-        <v>2.867012620473452e-05</v>
+        <v>-4.34921862566883e-05</v>
       </c>
     </row>
     <row r="6">
@@ -686,7 +686,7 @@
         <v>200</v>
       </c>
       <c r="B6" t="n">
-        <v>5.470463692751436e-05</v>
+        <v>-1.087892356483382e-05</v>
       </c>
     </row>
   </sheetData>
